--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/WEST_VIRGINIA_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/WEST_VIRGINIA_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cueramaro</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Cheran</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1165,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Constancia Del Rosario</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -1217,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Juan Mazatlan</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Juan Teita</t>
@@ -1243,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Mateo Peñasco</t>
@@ -1256,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Santa Maria Zacatepec</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santiago Yosondua</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Santo Tomas Ocotepec</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1339,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Jonotla</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1427,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1458,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -1471,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1484,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1515,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -1528,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1559,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1590,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1621,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1652,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -1665,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -1678,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1709,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -1722,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
